--- a/Automation-UserCMD/TestData/Outputs/ContentContainerOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ContentContainerOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contentcontainer (3)" sheetId="1" r:id="Rb2a7ba8852204217"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contentcontainer (3)" sheetId="1" r:id="Rfa76ac88457a4115"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ContentContainerOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ContentContainerOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contentcontainer (3)" sheetId="1" r:id="Rfa76ac88457a4115"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contentcontainer (3)" sheetId="1" r:id="Ra15a0fb8d16843e9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/ContentContainerOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/ContentContainerOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contentcontainer (3)" sheetId="1" r:id="Ra15a0fb8d16843e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contentcontainer (3)" sheetId="1" r:id="R4473f8674f4f4fbf"/>
   </x:sheets>
 </x:workbook>
 </file>
